--- a/izvještaji/generated/Custom_izvjestaj_20260109.xlsx
+++ b/izvještaji/generated/Custom_izvjestaj_20260109.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -46,6 +46,9 @@
       <b val="1"/>
       <color rgb="00D97706"/>
       <sz val="12"/>
+    </font>
+    <font>
+      <i val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -80,7 +83,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -94,11 +97,39 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -107,23 +138,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -492,7 +527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,27 +608,27 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>12.12.2025</t>
+          <t>01.08.2025</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Wizz Air Hungary</t>
+          <t>Wizz Air Malta</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>A 321</t>
+          <t>A320</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>9H-WAT</t>
+          <t>9H-WBX</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>TZL-FMM-TZL</t>
+          <t>FMM-TZL-FMM</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -603,99 +638,99 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>W64279</t>
+          <t>W44280</t>
         </is>
       </c>
       <c r="H2" s="3" t="n">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>W64280</t>
+          <t>W44279</t>
         </is>
       </c>
       <c r="J2" s="3" t="n">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>290</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>13.12.2025</t>
+          <t>01.08.2025</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Wizz Air Hungary</t>
+          <t>FREEBIRD AIRLINES</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>A 321</t>
+          <t>A320</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>9H-WAT</t>
+          <t>TC-FHG</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>TZL-FMM-TZL</t>
+          <t>AYT-TZL-AYT</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>Redovan</t>
+          <t>Charter</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>W64279</t>
+          <t>FH821</t>
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>W64280</t>
+          <t>FH822</t>
         </is>
       </c>
       <c r="J3" s="3" t="n">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>298</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>14.12.2025</t>
+          <t>01.08.2025</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Wizz Air Hungary</t>
+          <t>Pegasus Airlines</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>A 321</t>
+          <t>A320</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>HA-LGA</t>
+          <t>TC-CRG</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>TZL-FMM-TZL</t>
+          <t>SAW-TZL-SAW</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -705,48 +740,48 @@
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>W64279</t>
+          <t>PC250</t>
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>W64280</t>
+          <t>PC251</t>
         </is>
       </c>
       <c r="J4" s="3" t="n">
-        <v>211</v>
+        <v>137</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>413</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>15.12.2025</t>
+          <t>01.08.2025</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Wizz Air Hungary</t>
+          <t>Wizz Air Malta</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>A 321</t>
+          <t>A320</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>HA-LGA</t>
+          <t>9H-WZR</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>TZL-FMM-TZL</t>
+          <t>DTM-TZL-DTM</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -756,28 +791,28 @@
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>W64279</t>
+          <t>W44298</t>
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>W64280</t>
+          <t>W44297</t>
         </is>
       </c>
       <c r="J5" s="3" t="n">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>225</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>16.12.2025</t>
+          <t>01.08.2025</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -787,17 +822,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>A 321</t>
+          <t>A320</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>HA-LGA</t>
+          <t>HA-LWV</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>TZL-FMM-TZL</t>
+          <t>MLH-TZL-MLH</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -807,48 +842,48 @@
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>W64279</t>
+          <t>W64294</t>
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>W64280</t>
+          <t>W64293</t>
         </is>
       </c>
       <c r="J6" s="3" t="n">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>0</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>17.12.2025</t>
+          <t>01.08.2025</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Wizz Air Hungary</t>
+          <t>Wizz Air Malta</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>A 321</t>
+          <t>A320</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>HA-LGA</t>
+          <t>HA-LZW</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>TZL-FMM-TZL</t>
+          <t>VIE-TZL-VIE</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -858,48 +893,48 @@
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>W64279</t>
+          <t>W44286</t>
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>W64280</t>
+          <t>W44285</t>
         </is>
       </c>
       <c r="J7" s="3" t="n">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>347</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>18.12.2025</t>
+          <t>02.08.2025</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Wizz Air Hungary</t>
+          <t>Wizz Air Malta</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>A 321</t>
+          <t>A320</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>HA-LGA</t>
+          <t>9H-WBO</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>TZL-FMM-TZL</t>
+          <t>FMM-TZL-FMM</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -909,28 +944,28 @@
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>W64279</t>
+          <t>W44280</t>
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>W64280</t>
+          <t>W44279</t>
         </is>
       </c>
       <c r="J8" s="3" t="n">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>295</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>19.12.2025</t>
+          <t>02.08.2025</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -945,12 +980,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>HA-LGA</t>
+          <t>9H-WNZ</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>TZL-FMM-TZL</t>
+          <t>DTM-TZL-DTM</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -960,28 +995,28 @@
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>W64279</t>
+          <t>W44298</t>
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>114</v>
+        <v>237</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>W64280</t>
+          <t>W44297</t>
         </is>
       </c>
       <c r="J9" s="3" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>343</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>21.12.2025</t>
+          <t>02.08.2025</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -996,12 +1031,12 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>HA-LGA</t>
+          <t>9H-WNB</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>TZL-FMM-TZL</t>
+          <t>MLH-TZL-MLH</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -1011,48 +1046,48 @@
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>W64279</t>
+          <t>W64294</t>
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>W64280</t>
+          <t>W64293</t>
         </is>
       </c>
       <c r="J10" s="3" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>436</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>22.12.2025</t>
+          <t>03.08.2025</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Wizz Air Hungary</t>
+          <t>Wizz Air Malta</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>A 321</t>
+          <t>A320</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>HA-LGA</t>
+          <t>9H-WBX</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>TZL-FMM-TZL</t>
+          <t>FMM-TZL-FMM</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1062,48 +1097,48 @@
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>W64279</t>
+          <t>W44280</t>
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>W64280</t>
+          <t>W44279</t>
         </is>
       </c>
       <c r="J11" s="3" t="n">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>23.12.2025</t>
+          <t>03.08.2025</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Wizz Air Hungary</t>
+          <t>Wizz Air Malta</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>A 321</t>
+          <t>A320</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9H-WNA</t>
+          <t>9H-WZQ</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>TZL-FMM-TZL</t>
+          <t>DTM-TZL-DTM</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1113,48 +1148,48 @@
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>W64279</t>
+          <t>W44298</t>
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>W64280</t>
+          <t>W44297</t>
         </is>
       </c>
       <c r="J12" s="3" t="n">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c r="K12" s="3" t="n">
-        <v>309</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>24.12.2025</t>
+          <t>03.08.2025</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Wizz Air Hungary</t>
+          <t>Wizz Air Malta</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>A 321</t>
+          <t>A21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9H-WNA</t>
+          <t>9H-WDP</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>TZL-FMM-TZL</t>
+          <t>VIE-TZL-VIE</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1164,48 +1199,48 @@
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>W64279</t>
+          <t>W44286</t>
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>W64280</t>
+          <t>W44285</t>
         </is>
       </c>
       <c r="J13" s="3" t="n">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="K13" s="3" t="n">
-        <v>350</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>25.12.2025</t>
+          <t>04.08.2025</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Wizz Air Hungary</t>
+          <t>Wizz Air Malta</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>A 321</t>
+          <t>A320</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9H-WNA</t>
+          <t>9H-WZR</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>TZL-FMM-TZL</t>
+          <t>FMM-TZL-FMM</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1215,48 +1250,48 @@
       </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>W64279</t>
+          <t>W44280</t>
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>W64280</t>
+          <t>W44279</t>
         </is>
       </c>
       <c r="J14" s="3" t="n">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="K14" s="3" t="n">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>26.12.2025</t>
+          <t>04.08.2025</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Wizz Air Hungary</t>
+          <t>Wizz Air Malta</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>A 321</t>
+          <t>A320</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9H-WNA</t>
+          <t>9H-WZQ</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>TZL-FMM-TZL</t>
+          <t>DTM-TZL-DTM</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1266,28 +1301,28 @@
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>W64279</t>
+          <t>W44298</t>
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>W64280</t>
+          <t>W44297</t>
         </is>
       </c>
       <c r="J15" s="3" t="n">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="K15" s="3" t="n">
-        <v>417</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>28.12.2025</t>
+          <t>04.08.2025</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1297,17 +1332,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>A 321</t>
+          <t>A320</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>HA-LGA</t>
+          <t>HA-LYS</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>TZL-FMM-TZL</t>
+          <t>MLH-TZL-MLH</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1317,48 +1352,48 @@
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>W64279</t>
+          <t>W64294</t>
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>W64280</t>
+          <t>W64293</t>
         </is>
       </c>
       <c r="J16" s="3" t="n">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="K16" s="3" t="n">
-        <v>434</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>29.12.2025</t>
+          <t>04.08.2025</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Wizz Air Hungary</t>
+          <t>AJet</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>A 321</t>
+          <t>B737</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9H-WNA</t>
+          <t>TC-JHA</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>TZL-FMM-TZL</t>
+          <t>SAW-TZL-SAW</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1368,79 +1403,79 @@
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>W64279</t>
+          <t>VF271</t>
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>W64280</t>
+          <t>VF272</t>
         </is>
       </c>
       <c r="J17" s="3" t="n">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="K17" s="3" t="n">
-        <v>412</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>30.12.2025</t>
+          <t>05.08.2025</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Wizz Air Hungary</t>
+          <t>FREEBIRD AIRLINES</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>A 321</t>
+          <t>A320</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>HA-LGA</t>
+          <t>TC-FHC</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>TZL-FMM-TZL</t>
+          <t>AYT-TZL-AYT</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>Redovan</t>
+          <t>Charter</t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>W64279</t>
+          <t>FHY821</t>
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>W64280</t>
+          <t>FHY822</t>
         </is>
       </c>
       <c r="J18" s="3" t="n">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="K18" s="3" t="n">
-        <v>415</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>31.12.2025</t>
+          <t>05.08.2025</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1455,230 +1490,6028 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
+          <t>9H-WMG</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>MLH-TZL-MLH</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>W64294</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>183</v>
+      </c>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>W64293</t>
+        </is>
+      </c>
+      <c r="J19" s="3" t="n">
+        <v>238</v>
+      </c>
+      <c r="K19" s="3" t="n">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Corendon Airlines</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>B737-800</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>TC-COE</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>AYT-TZL-AYT</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>Charter</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>CAI197</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>189</v>
+      </c>
+      <c r="I20" s="3" t="inlineStr">
+        <is>
+          <t>CAI198</t>
+        </is>
+      </c>
+      <c r="J20" s="3" t="n">
+        <v>188</v>
+      </c>
+      <c r="K20" s="3" t="n">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Hungary</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>A 321</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>9H-WAI</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>DTM-TZL-DTM</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>W64298</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>232</v>
+      </c>
+      <c r="I21" s="3" t="inlineStr">
+        <is>
+          <t>W64298</t>
+        </is>
+      </c>
+      <c r="J21" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="K21" s="3" t="n">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>06.08.2025</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>9H-WZR</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>FMM-TZL-FMM</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>W44280</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>176</v>
+      </c>
+      <c r="I22" s="3" t="inlineStr">
+        <is>
+          <t>W44279</t>
+        </is>
+      </c>
+      <c r="J22" s="3" t="n">
+        <v>172</v>
+      </c>
+      <c r="K22" s="3" t="n">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>06.08.2025</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>9H-WZT</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>DTM-TZL-DTM</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>W44298</t>
+        </is>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>171</v>
+      </c>
+      <c r="I23" s="3" t="inlineStr">
+        <is>
+          <t>W44297</t>
+        </is>
+      </c>
+      <c r="J23" s="3" t="n">
+        <v>166</v>
+      </c>
+      <c r="K23" s="3" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>06.08.2025</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Hungary</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>HA-LYT</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>MLH-TZL-MLH</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>W64294</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>167</v>
+      </c>
+      <c r="I24" s="3" t="inlineStr">
+        <is>
+          <t>W64293</t>
+        </is>
+      </c>
+      <c r="J24" s="3" t="n">
+        <v>164</v>
+      </c>
+      <c r="K24" s="3" t="n">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>06.08.2025</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>A21</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>9H-WAG</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>VIE-TZL-VIE</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>W44286</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>215</v>
+      </c>
+      <c r="I25" s="3" t="inlineStr">
+        <is>
+          <t>W44285</t>
+        </is>
+      </c>
+      <c r="J25" s="3" t="n">
+        <v>189</v>
+      </c>
+      <c r="K25" s="3" t="n">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>07.08.2025</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>HA-LYK</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>FMM-TZL-FMM</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>W44280</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>178</v>
+      </c>
+      <c r="I26" s="3" t="inlineStr">
+        <is>
+          <t>W44279</t>
+        </is>
+      </c>
+      <c r="J26" s="3" t="n">
+        <v>163</v>
+      </c>
+      <c r="K26" s="3" t="n">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>07.08.2025</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Hungary</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>A 321</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>9H-WDR</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>DTM-TZL-DTM</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G27" s="3" t="inlineStr">
+        <is>
+          <t>W64298</t>
+        </is>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>223</v>
+      </c>
+      <c r="I27" s="3" t="inlineStr">
+        <is>
+          <t>W64297</t>
+        </is>
+      </c>
+      <c r="J27" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="K27" s="3" t="n">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>08.08.2025</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>9H-WZS</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>FMM-TZL-FMM</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G28" s="3" t="inlineStr">
+        <is>
+          <t>W44280</t>
+        </is>
+      </c>
+      <c r="H28" s="3" t="n">
+        <v>169</v>
+      </c>
+      <c r="I28" s="3" t="inlineStr">
+        <is>
+          <t>W44279</t>
+        </is>
+      </c>
+      <c r="J28" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="K28" s="3" t="n">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>08.08.2025</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>FREEBIRD AIRLINES</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>TC-FHP</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>AYT-TZL-AYT</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>Charter</t>
+        </is>
+      </c>
+      <c r="G29" s="3" t="inlineStr">
+        <is>
+          <t>FH821</t>
+        </is>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="I29" s="3" t="inlineStr">
+        <is>
+          <t>FH822</t>
+        </is>
+      </c>
+      <c r="J29" s="3" t="n">
+        <v>178</v>
+      </c>
+      <c r="K29" s="3" t="n">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>08.08.2025</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Pegasus Airlines</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>TC-CRF</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>SAW-TZL-SAW</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G30" s="3" t="inlineStr">
+        <is>
+          <t>PC250</t>
+        </is>
+      </c>
+      <c r="H30" s="3" t="n">
+        <v>163</v>
+      </c>
+      <c r="I30" s="3" t="inlineStr">
+        <is>
+          <t>PC251</t>
+        </is>
+      </c>
+      <c r="J30" s="3" t="n">
+        <v>152</v>
+      </c>
+      <c r="K30" s="3" t="n">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>08.08.2025</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>9H-WZT</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>DTM-TZL-DTM</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>W44298</t>
+        </is>
+      </c>
+      <c r="H31" s="3" t="n">
+        <v>177</v>
+      </c>
+      <c r="I31" s="3" t="inlineStr">
+        <is>
+          <t>W44297</t>
+        </is>
+      </c>
+      <c r="J31" s="3" t="n">
+        <v>177</v>
+      </c>
+      <c r="K31" s="3" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>08.08.2025</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Hungary</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>9H-WDD</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>MLH-TZL-MLH</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G32" s="3" t="inlineStr">
+        <is>
+          <t>W64294</t>
+        </is>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>174</v>
+      </c>
+      <c r="I32" s="3" t="inlineStr">
+        <is>
+          <t>W64293</t>
+        </is>
+      </c>
+      <c r="J32" s="3" t="n">
+        <v>178</v>
+      </c>
+      <c r="K32" s="3" t="n">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>08.08.2025</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>HA-LVK</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>VIE-TZL-VIE</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G33" s="3" t="inlineStr">
+        <is>
+          <t>W44286</t>
+        </is>
+      </c>
+      <c r="H33" s="3" t="n">
+        <v>223</v>
+      </c>
+      <c r="I33" s="3" t="inlineStr">
+        <is>
+          <t>W44285</t>
+        </is>
+      </c>
+      <c r="J33" s="3" t="n">
+        <v>207</v>
+      </c>
+      <c r="K33" s="3" t="n">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>9H-WAU</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>FMM-TZL-FMM</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G34" s="3" t="inlineStr">
+        <is>
+          <t>W44280</t>
+        </is>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>177</v>
+      </c>
+      <c r="I34" s="3" t="inlineStr">
+        <is>
+          <t>W44279</t>
+        </is>
+      </c>
+      <c r="J34" s="3" t="n">
+        <v>175</v>
+      </c>
+      <c r="K34" s="3" t="n">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Hungary</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>A 321</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>HA-LGW</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>DTM-TZL-DTM</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G35" s="3" t="inlineStr">
+        <is>
+          <t>W44298</t>
+        </is>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="I35" s="3" t="inlineStr">
+        <is>
+          <t>W44297</t>
+        </is>
+      </c>
+      <c r="J35" s="3" t="n">
+        <v>237</v>
+      </c>
+      <c r="K35" s="3" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Hungary</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>A 321</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>9H-WAI</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>MLH-TZL-MLH</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G36" s="3" t="inlineStr">
+        <is>
+          <t>W64294</t>
+        </is>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>224</v>
+      </c>
+      <c r="I36" s="3" t="inlineStr">
+        <is>
+          <t>W64293</t>
+        </is>
+      </c>
+      <c r="J36" s="3" t="n">
+        <v>231</v>
+      </c>
+      <c r="K36" s="3" t="n">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>HA-LWM</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>FMM-TZL-FMM</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G37" s="3" t="inlineStr">
+        <is>
+          <t>W44280</t>
+        </is>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>168</v>
+      </c>
+      <c r="I37" s="3" t="inlineStr">
+        <is>
+          <t>W44279</t>
+        </is>
+      </c>
+      <c r="J37" s="3" t="n">
+        <v>176</v>
+      </c>
+      <c r="K37" s="3" t="n">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>9H-WZT</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>DTM-TZL-DTM</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G38" s="3" t="inlineStr">
+        <is>
+          <t>W44298</t>
+        </is>
+      </c>
+      <c r="H38" s="3" t="n">
+        <v>169</v>
+      </c>
+      <c r="I38" s="3" t="inlineStr">
+        <is>
+          <t>W44297</t>
+        </is>
+      </c>
+      <c r="J38" s="3" t="n">
+        <v>179</v>
+      </c>
+      <c r="K38" s="3" t="n">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>A21</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>9H-WDV</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>VIE-TZL-VIE</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G39" s="3" t="inlineStr">
+        <is>
+          <t>W44286</t>
+        </is>
+      </c>
+      <c r="H39" s="3" t="n">
+        <v>220</v>
+      </c>
+      <c r="I39" s="3" t="inlineStr">
+        <is>
+          <t>W44285</t>
+        </is>
+      </c>
+      <c r="J39" s="3" t="n">
+        <v>222</v>
+      </c>
+      <c r="K39" s="3" t="n">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>9H-WBO</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>FMM-TZL-FMM</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G40" s="3" t="inlineStr">
+        <is>
+          <t>W44280</t>
+        </is>
+      </c>
+      <c r="H40" s="3" t="n">
+        <v>158</v>
+      </c>
+      <c r="I40" s="3" t="inlineStr">
+        <is>
+          <t>W44279</t>
+        </is>
+      </c>
+      <c r="J40" s="3" t="n">
+        <v>176</v>
+      </c>
+      <c r="K40" s="3" t="n">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>9H-WDD</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>DTM-TZL-DTM</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G41" s="3" t="inlineStr">
+        <is>
+          <t>W44298</t>
+        </is>
+      </c>
+      <c r="H41" s="3" t="n">
+        <v>163</v>
+      </c>
+      <c r="I41" s="3" t="inlineStr">
+        <is>
+          <t>W44297</t>
+        </is>
+      </c>
+      <c r="J41" s="3" t="n">
+        <v>177</v>
+      </c>
+      <c r="K41" s="3" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Hungary</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>HA-LYT</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>MLH-TZL-MLH</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G42" s="3" t="inlineStr">
+        <is>
+          <t>W64294</t>
+        </is>
+      </c>
+      <c r="H42" s="3" t="n">
+        <v>148</v>
+      </c>
+      <c r="I42" s="3" t="inlineStr">
+        <is>
+          <t>W64293</t>
+        </is>
+      </c>
+      <c r="J42" s="3" t="n">
+        <v>174</v>
+      </c>
+      <c r="K42" s="3" t="n">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>AJet</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>B737</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>TC-JZS</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>SAW-TZL-SAW</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G43" s="3" t="inlineStr">
+        <is>
+          <t>VF271</t>
+        </is>
+      </c>
+      <c r="H43" s="3" t="n">
+        <v>186</v>
+      </c>
+      <c r="I43" s="3" t="inlineStr">
+        <is>
+          <t>VF272</t>
+        </is>
+      </c>
+      <c r="J43" s="3" t="n">
+        <v>186</v>
+      </c>
+      <c r="K43" s="3" t="n">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>FREEBIRD AIRLINES</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>TC-FBR</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>AYT-TZL-AYT</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>Charter</t>
+        </is>
+      </c>
+      <c r="G44" s="3" t="inlineStr">
+        <is>
+          <t>FHY821</t>
+        </is>
+      </c>
+      <c r="H44" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="I44" s="3" t="inlineStr">
+        <is>
+          <t>FHY822</t>
+        </is>
+      </c>
+      <c r="J44" s="3" t="n">
+        <v>179</v>
+      </c>
+      <c r="K44" s="3" t="n">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Hungary</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>A 321</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>9H-WMG</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>MLH-TZL-MLH</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G45" s="3" t="inlineStr">
+        <is>
+          <t>W64294</t>
+        </is>
+      </c>
+      <c r="H45" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="I45" s="3" t="inlineStr">
+        <is>
+          <t>W64293</t>
+        </is>
+      </c>
+      <c r="J45" s="3" t="n">
+        <v>232</v>
+      </c>
+      <c r="K45" s="3" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Corendon Airlines</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>B737-800</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>9H-CXD</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>AYT-TZL-AYT</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>Charter</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>CAI197</t>
+        </is>
+      </c>
+      <c r="H46" s="3" t="n">
+        <v>185</v>
+      </c>
+      <c r="I46" s="3" t="inlineStr">
+        <is>
+          <t>CAI198</t>
+        </is>
+      </c>
+      <c r="J46" s="3" t="n">
+        <v>187</v>
+      </c>
+      <c r="K46" s="3" t="n">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Hungary</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>A 321</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>HA-LVJ</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>DTM-TZL-DTM</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="inlineStr">
+        <is>
+          <t>W64298</t>
+        </is>
+      </c>
+      <c r="H47" s="3" t="n">
+        <v>210</v>
+      </c>
+      <c r="I47" s="3" t="inlineStr">
+        <is>
+          <t>W64298</t>
+        </is>
+      </c>
+      <c r="J47" s="3" t="n">
+        <v>229</v>
+      </c>
+      <c r="K47" s="3" t="n">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>13.08.2025</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>9H-WBO</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>FMM-TZL-FMM</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G48" s="3" t="inlineStr">
+        <is>
+          <t>W44280</t>
+        </is>
+      </c>
+      <c r="H48" s="3" t="n">
+        <v>172</v>
+      </c>
+      <c r="I48" s="3" t="inlineStr">
+        <is>
+          <t>W44279</t>
+        </is>
+      </c>
+      <c r="J48" s="3" t="n">
+        <v>177</v>
+      </c>
+      <c r="K48" s="3" t="n">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>13.08.2025</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>9H-WZT</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>DTM-TZL-DTM</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G49" s="3" t="inlineStr">
+        <is>
+          <t>W44298</t>
+        </is>
+      </c>
+      <c r="H49" s="3" t="n">
+        <v>156</v>
+      </c>
+      <c r="I49" s="3" t="inlineStr">
+        <is>
+          <t>W44297</t>
+        </is>
+      </c>
+      <c r="J49" s="3" t="n">
+        <v>177</v>
+      </c>
+      <c r="K49" s="3" t="n">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>13.08.2025</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Hungary</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>HA-LYF</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>MLH-TZL-MLH</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G50" s="3" t="inlineStr">
+        <is>
+          <t>W64294</t>
+        </is>
+      </c>
+      <c r="H50" s="3" t="n">
+        <v>120</v>
+      </c>
+      <c r="I50" s="3" t="inlineStr">
+        <is>
+          <t>W64293</t>
+        </is>
+      </c>
+      <c r="J50" s="3" t="n">
+        <v>169</v>
+      </c>
+      <c r="K50" s="3" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>13.08.2025</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>A21</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>HA-LVK</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>VIE-TZL-VIE</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G51" s="3" t="inlineStr">
+        <is>
+          <t>W44286</t>
+        </is>
+      </c>
+      <c r="H51" s="3" t="n">
+        <v>224</v>
+      </c>
+      <c r="I51" s="3" t="inlineStr">
+        <is>
+          <t>W44285</t>
+        </is>
+      </c>
+      <c r="J51" s="3" t="n">
+        <v>219</v>
+      </c>
+      <c r="K51" s="3" t="n">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>14.08.2025</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>9H-WBY</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>FMM-TZL-FMM</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G52" s="3" t="inlineStr">
+        <is>
+          <t>W44280</t>
+        </is>
+      </c>
+      <c r="H52" s="3" t="n">
+        <v>181</v>
+      </c>
+      <c r="I52" s="3" t="inlineStr">
+        <is>
+          <t>W44279</t>
+        </is>
+      </c>
+      <c r="J52" s="3" t="n">
+        <v>183</v>
+      </c>
+      <c r="K52" s="3" t="n">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>14.08.2025</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Hungary</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>A 321</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>HA-LVJ</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>DTM-TZL-DTM</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G53" s="3" t="inlineStr">
+        <is>
+          <t>W64298</t>
+        </is>
+      </c>
+      <c r="H53" s="3" t="n">
+        <v>201</v>
+      </c>
+      <c r="I53" s="3" t="inlineStr">
+        <is>
+          <t>W64297</t>
+        </is>
+      </c>
+      <c r="J53" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="K53" s="3" t="n">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>15.08.2025</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>9H-WAU</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>FMM-TZL-FMM</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G54" s="3" t="inlineStr">
+        <is>
+          <t>W44280</t>
+        </is>
+      </c>
+      <c r="H54" s="3" t="n">
+        <v>168</v>
+      </c>
+      <c r="I54" s="3" t="inlineStr">
+        <is>
+          <t>W44279</t>
+        </is>
+      </c>
+      <c r="J54" s="3" t="n">
+        <v>179</v>
+      </c>
+      <c r="K54" s="3" t="n">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>15.08.2025</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>FREEBIRD AIRLINES</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>TC-FHF</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>AYT-TZL-AYT</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>Charter</t>
+        </is>
+      </c>
+      <c r="G55" s="3" t="inlineStr">
+        <is>
+          <t>FH821</t>
+        </is>
+      </c>
+      <c r="H55" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="I55" s="3" t="inlineStr">
+        <is>
+          <t>FH822</t>
+        </is>
+      </c>
+      <c r="J55" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="K55" s="3" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>15.08.2025</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>Pegasus Airlines</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>TC-CPE</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>SAW-TZL-SAW</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G56" s="3" t="inlineStr">
+        <is>
+          <t>PC250</t>
+        </is>
+      </c>
+      <c r="H56" s="3" t="n">
+        <v>161</v>
+      </c>
+      <c r="I56" s="3" t="inlineStr">
+        <is>
+          <t>PC251</t>
+        </is>
+      </c>
+      <c r="J56" s="3" t="n">
+        <v>164</v>
+      </c>
+      <c r="K56" s="3" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>15.08.2025</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>9H-WBQ</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>DTM-TZL-DTM</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G57" s="3" t="inlineStr">
+        <is>
+          <t>W44298</t>
+        </is>
+      </c>
+      <c r="H57" s="3" t="n">
+        <v>172</v>
+      </c>
+      <c r="I57" s="3" t="inlineStr">
+        <is>
+          <t>W44297</t>
+        </is>
+      </c>
+      <c r="J57" s="3" t="n">
+        <v>184</v>
+      </c>
+      <c r="K57" s="3" t="n">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>15.08.2025</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Hungary</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>9H-WNV</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>MLH-TZL-MLH</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G58" s="3" t="inlineStr">
+        <is>
+          <t>W64294</t>
+        </is>
+      </c>
+      <c r="H58" s="3" t="n">
+        <v>164</v>
+      </c>
+      <c r="I58" s="3" t="inlineStr">
+        <is>
+          <t>W64293</t>
+        </is>
+      </c>
+      <c r="J58" s="3" t="n">
+        <v>170</v>
+      </c>
+      <c r="K58" s="3" t="n">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>15.08.2025</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Hungary</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>A 321</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>9H-WNV</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>SOF-TZL-SOF</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G59" s="3" t="inlineStr">
+        <is>
+          <t>W6811</t>
+        </is>
+      </c>
+      <c r="H59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3" t="inlineStr">
+        <is>
+          <t>W6812</t>
+        </is>
+      </c>
+      <c r="J59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>15.08.2025</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>HA-LVK</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>VIE-TZL-VIE</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G60" s="3" t="inlineStr">
+        <is>
+          <t>W44286</t>
+        </is>
+      </c>
+      <c r="H60" s="3" t="n">
+        <v>222</v>
+      </c>
+      <c r="I60" s="3" t="inlineStr">
+        <is>
+          <t>W44285</t>
+        </is>
+      </c>
+      <c r="J60" s="3" t="n">
+        <v>222</v>
+      </c>
+      <c r="K60" s="3" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>16.08.2025</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>9H-WN</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>FMM-TZL-FMM</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G61" s="3" t="inlineStr">
+        <is>
+          <t>W44280</t>
+        </is>
+      </c>
+      <c r="H61" s="3" t="n">
+        <v>176</v>
+      </c>
+      <c r="I61" s="3" t="inlineStr">
+        <is>
+          <t>W44279</t>
+        </is>
+      </c>
+      <c r="J61" s="3" t="n">
+        <v>185</v>
+      </c>
+      <c r="K61" s="3" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>16.08.2025</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Hungary</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>A 321</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>HA-LGW</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>MLH-TZL-MLH</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G62" s="3" t="inlineStr">
+        <is>
+          <t>W64294</t>
+        </is>
+      </c>
+      <c r="H62" s="3" t="n">
+        <v>217</v>
+      </c>
+      <c r="I62" s="3" t="inlineStr">
+        <is>
+          <t>W64293</t>
+        </is>
+      </c>
+      <c r="J62" s="3" t="n">
+        <v>233</v>
+      </c>
+      <c r="K62" s="3" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>16.08.2025</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Hungary</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>A 321</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>HA-LGU</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>DTM-TZL-DTM</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G63" s="3" t="inlineStr">
+        <is>
+          <t>W64298</t>
+        </is>
+      </c>
+      <c r="H63" s="3" t="n">
+        <v>219</v>
+      </c>
+      <c r="I63" s="3" t="inlineStr">
+        <is>
+          <t>W64297</t>
+        </is>
+      </c>
+      <c r="J63" s="3" t="n">
+        <v>231</v>
+      </c>
+      <c r="K63" s="3" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>17.08.2025</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>9H-WZW</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>FMM-TZL-FMM</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G64" s="3" t="inlineStr">
+        <is>
+          <t>W44280</t>
+        </is>
+      </c>
+      <c r="H64" s="3" t="n">
+        <v>163</v>
+      </c>
+      <c r="I64" s="3" t="inlineStr">
+        <is>
+          <t>W44279</t>
+        </is>
+      </c>
+      <c r="J64" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="K64" s="3" t="n">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>17.08.2025</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>9H-WZT</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>DTM-TZL-DTM</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G65" s="3" t="inlineStr">
+        <is>
+          <t>W44298</t>
+        </is>
+      </c>
+      <c r="H65" s="3" t="n">
+        <v>174</v>
+      </c>
+      <c r="I65" s="3" t="inlineStr">
+        <is>
+          <t>W44297</t>
+        </is>
+      </c>
+      <c r="J65" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="K65" s="3" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>17.08.2025</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>A21</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>9H-WAG</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>VIE-TZL-VIE</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G66" s="3" t="inlineStr">
+        <is>
+          <t>W44286</t>
+        </is>
+      </c>
+      <c r="H66" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="I66" s="3" t="inlineStr">
+        <is>
+          <t>W44285</t>
+        </is>
+      </c>
+      <c r="J66" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="K66" s="3" t="n">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>17.08.2025</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>Airport Mali Lošinj</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>BE9L</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>9A-SET</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>EBOS-TZL</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>Charter</t>
+        </is>
+      </c>
+      <c r="G67" s="3" t="inlineStr">
+        <is>
+          <t>9ALAN</t>
+        </is>
+      </c>
+      <c r="H67" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I67" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>18.08.2025</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>9H-WBY</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>FMM-TZL-FMM</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G68" s="3" t="inlineStr">
+        <is>
+          <t>W44280</t>
+        </is>
+      </c>
+      <c r="H68" s="3" t="n">
+        <v>153</v>
+      </c>
+      <c r="I68" s="3" t="inlineStr">
+        <is>
+          <t>W44279</t>
+        </is>
+      </c>
+      <c r="J68" s="3" t="n">
+        <v>183</v>
+      </c>
+      <c r="K68" s="3" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>18.08.2025</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>Airport Mali Lošinj</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>BE9L</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>9H-SET</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>TZL-LSZ</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>Generalna avijacija</t>
+        </is>
+      </c>
+      <c r="G69" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>18.08.2025</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>9H-WZT</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>DTM-TZL-DTM</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G70" s="3" t="inlineStr">
+        <is>
+          <t>W44298</t>
+        </is>
+      </c>
+      <c r="H70" s="3" t="n">
+        <v>159</v>
+      </c>
+      <c r="I70" s="3" t="inlineStr">
+        <is>
+          <t>W44297</t>
+        </is>
+      </c>
+      <c r="J70" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="K70" s="3" t="n">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>18.08.2025</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Hungary</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>9H-WZS</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>MLH-TZL-MLH</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G71" s="3" t="inlineStr">
+        <is>
+          <t>W64294</t>
+        </is>
+      </c>
+      <c r="H71" s="3" t="n">
+        <v>115</v>
+      </c>
+      <c r="I71" s="3" t="inlineStr">
+        <is>
+          <t>W64293</t>
+        </is>
+      </c>
+      <c r="J71" s="3" t="n">
+        <v>172</v>
+      </c>
+      <c r="K71" s="3" t="n">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>18.08.2025</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>AJet</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>B737</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>TC-LAF</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>SAW-TZL-SAW</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G72" s="3" t="inlineStr">
+        <is>
+          <t>VF271</t>
+        </is>
+      </c>
+      <c r="H72" s="3" t="n">
+        <v>161</v>
+      </c>
+      <c r="I72" s="3" t="inlineStr">
+        <is>
+          <t>VF272</t>
+        </is>
+      </c>
+      <c r="J72" s="3" t="n">
+        <v>179</v>
+      </c>
+      <c r="K72" s="3" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>19.08.2025</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>FREEBIRD AIRLINES</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>TC-FBR</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>AYT-TZL-AYT</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t>Charter</t>
+        </is>
+      </c>
+      <c r="G73" s="3" t="inlineStr">
+        <is>
+          <t>FHY821</t>
+        </is>
+      </c>
+      <c r="H73" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="I73" s="3" t="inlineStr">
+        <is>
+          <t>FHY822</t>
+        </is>
+      </c>
+      <c r="J73" s="3" t="n">
+        <v>177</v>
+      </c>
+      <c r="K73" s="3" t="n">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>19.08.2025</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>Aero Klub Fenix</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>PIVI</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>E7-ABY</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>LQCG-TZL-LYVJ</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>Generalna avijacija</t>
+        </is>
+      </c>
+      <c r="G74" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H74" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J74" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>19.08.2025</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Hungary</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>A 321</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>9H-WMG</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>MLH-TZL-MLH</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G75" s="3" t="inlineStr">
+        <is>
+          <t>W64294</t>
+        </is>
+      </c>
+      <c r="H75" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="I75" s="3" t="inlineStr">
+        <is>
+          <t>W64293</t>
+        </is>
+      </c>
+      <c r="J75" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="K75" s="3" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>19.08.2025</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>Corendon Airlines</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>B737-800</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>9H-CXF</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>AYT-TZL-AYT</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>Charter</t>
+        </is>
+      </c>
+      <c r="G76" s="3" t="inlineStr">
+        <is>
+          <t>CAI197</t>
+        </is>
+      </c>
+      <c r="H76" s="3" t="n">
+        <v>189</v>
+      </c>
+      <c r="I76" s="3" t="inlineStr">
+        <is>
+          <t>CAI198</t>
+        </is>
+      </c>
+      <c r="J76" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="K76" s="3" t="n">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>19.08.2025</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Hungary</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>A 321</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="inlineStr">
+        <is>
+          <t>9H-WNN</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>DTM-TZL-DTM</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G77" s="3" t="inlineStr">
+        <is>
+          <t>W64298</t>
+        </is>
+      </c>
+      <c r="H77" s="3" t="n">
+        <v>146</v>
+      </c>
+      <c r="I77" s="3" t="inlineStr">
+        <is>
+          <t>W64298</t>
+        </is>
+      </c>
+      <c r="J77" s="3" t="n">
+        <v>227</v>
+      </c>
+      <c r="K77" s="3" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>20.08.2025</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>9H-WZQ</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>FMM-TZL-FMM</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G78" s="3" t="inlineStr">
+        <is>
+          <t>W44280</t>
+        </is>
+      </c>
+      <c r="H78" s="3" t="n">
+        <v>155</v>
+      </c>
+      <c r="I78" s="3" t="inlineStr">
+        <is>
+          <t>W44279</t>
+        </is>
+      </c>
+      <c r="J78" s="3" t="n">
+        <v>184</v>
+      </c>
+      <c r="K78" s="3" t="n">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>20.08.2025</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="inlineStr">
+        <is>
+          <t>HA-LWN</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>DTM-TZL-DTM</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G79" s="3" t="inlineStr">
+        <is>
+          <t>W44298</t>
+        </is>
+      </c>
+      <c r="H79" s="3" t="n">
+        <v>107</v>
+      </c>
+      <c r="I79" s="3" t="inlineStr">
+        <is>
+          <t>W44297</t>
+        </is>
+      </c>
+      <c r="J79" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="K79" s="3" t="n">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>20.08.2025</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Hungary</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>HA-LYT</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>MLH-TZL-MLH</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G80" s="3" t="inlineStr">
+        <is>
+          <t>W64294</t>
+        </is>
+      </c>
+      <c r="H80" s="3" t="n">
+        <v>96</v>
+      </c>
+      <c r="I80" s="3" t="inlineStr">
+        <is>
+          <t>W64293</t>
+        </is>
+      </c>
+      <c r="J80" s="3" t="n">
+        <v>179</v>
+      </c>
+      <c r="K80" s="3" t="n">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>20.08.2025</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>A21</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>9H-WAI</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>VIE-TZL-VIE</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G81" s="3" t="inlineStr">
+        <is>
+          <t>W44286</t>
+        </is>
+      </c>
+      <c r="H81" s="3" t="n">
+        <v>174</v>
+      </c>
+      <c r="I81" s="3" t="inlineStr">
+        <is>
+          <t>W44285</t>
+        </is>
+      </c>
+      <c r="J81" s="3" t="n">
+        <v>209</v>
+      </c>
+      <c r="K81" s="3" t="n">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>21.08.2025</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>Delic Air</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>C525</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>T7-BSG</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>SJJ-TZL-BEG</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G82" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H82" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J82" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>21.08.2025</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>9H-WBA</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>FMM-TZL-FMM</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G83" s="3" t="inlineStr">
+        <is>
+          <t>W44280</t>
+        </is>
+      </c>
+      <c r="H83" s="3" t="n">
+        <v>156</v>
+      </c>
+      <c r="I83" s="3" t="inlineStr">
+        <is>
+          <t>W44279</t>
+        </is>
+      </c>
+      <c r="J83" s="3" t="n">
+        <v>177</v>
+      </c>
+      <c r="K83" s="3" t="n">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>21.08.2025</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Hungary</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>A 321</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>HA-LGU</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>DTM-TZL-DTM</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G84" s="3" t="inlineStr">
+        <is>
+          <t>W64298</t>
+        </is>
+      </c>
+      <c r="H84" s="3" t="n">
+        <v>178</v>
+      </c>
+      <c r="I84" s="3" t="inlineStr">
+        <is>
+          <t>W64297</t>
+        </is>
+      </c>
+      <c r="J84" s="3" t="n">
+        <v>227</v>
+      </c>
+      <c r="K84" s="3" t="n">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>22.08.2025</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="inlineStr">
+        <is>
+          <t>9H-WAV</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>FMM-TZL-FMM</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G85" s="3" t="inlineStr">
+        <is>
+          <t>W44280</t>
+        </is>
+      </c>
+      <c r="H85" s="3" t="n">
+        <v>163</v>
+      </c>
+      <c r="I85" s="3" t="inlineStr">
+        <is>
+          <t>W44279</t>
+        </is>
+      </c>
+      <c r="J85" s="3" t="n">
+        <v>177</v>
+      </c>
+      <c r="K85" s="3" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>22.08.2025</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>FREEBIRD AIRLINES</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>TC-FBV</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>AYT-TZL-AYT</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>Charter</t>
+        </is>
+      </c>
+      <c r="G86" s="3" t="inlineStr">
+        <is>
+          <t>FH821</t>
+        </is>
+      </c>
+      <c r="H86" s="3" t="n">
+        <v>179</v>
+      </c>
+      <c r="I86" s="3" t="inlineStr">
+        <is>
+          <t>FH822</t>
+        </is>
+      </c>
+      <c r="J86" s="3" t="n">
+        <v>179</v>
+      </c>
+      <c r="K86" s="3" t="n">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>22.08.2025</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>Pegasus Airlines</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>TC-CPD</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>SAW-TZL-SAW</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G87" s="3" t="inlineStr">
+        <is>
+          <t>PC250</t>
+        </is>
+      </c>
+      <c r="H87" s="3" t="n">
+        <v>168</v>
+      </c>
+      <c r="I87" s="3" t="inlineStr">
+        <is>
+          <t>PC251</t>
+        </is>
+      </c>
+      <c r="J87" s="3" t="n">
+        <v>183</v>
+      </c>
+      <c r="K87" s="3" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>22.08.2025</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>9H-WAU</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>DTM-TZL-DTM</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G88" s="3" t="inlineStr">
+        <is>
+          <t>W44298</t>
+        </is>
+      </c>
+      <c r="H88" s="3" t="n">
+        <v>158</v>
+      </c>
+      <c r="I88" s="3" t="inlineStr">
+        <is>
+          <t>W44297</t>
+        </is>
+      </c>
+      <c r="J88" s="3" t="n">
+        <v>183</v>
+      </c>
+      <c r="K88" s="3" t="n">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>22.08.2025</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Hungary</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t>HA-LWC</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>MLH-TZL-MLH</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G89" s="3" t="inlineStr">
+        <is>
+          <t>W64294</t>
+        </is>
+      </c>
+      <c r="H89" s="3" t="n">
+        <v>143</v>
+      </c>
+      <c r="I89" s="3" t="inlineStr">
+        <is>
+          <t>W64293</t>
+        </is>
+      </c>
+      <c r="J89" s="3" t="n">
+        <v>172</v>
+      </c>
+      <c r="K89" s="3" t="n">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>22.08.2025</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>9H-WAI</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>VIE-TZL-VIE</t>
+        </is>
+      </c>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G90" s="3" t="inlineStr">
+        <is>
+          <t>W44286</t>
+        </is>
+      </c>
+      <c r="H90" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="I90" s="3" t="inlineStr">
+        <is>
+          <t>W44285</t>
+        </is>
+      </c>
+      <c r="J90" s="3" t="n">
+        <v>211</v>
+      </c>
+      <c r="K90" s="3" t="n">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>23.08.2025</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="inlineStr">
+        <is>
+          <t>9H-WBA</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="inlineStr">
+        <is>
+          <t>FMM-TZL-FMM</t>
+        </is>
+      </c>
+      <c r="F91" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G91" s="3" t="inlineStr">
+        <is>
+          <t>W44280</t>
+        </is>
+      </c>
+      <c r="H91" s="3" t="n">
+        <v>145</v>
+      </c>
+      <c r="I91" s="3" t="inlineStr">
+        <is>
+          <t>W44279</t>
+        </is>
+      </c>
+      <c r="J91" s="3" t="n">
+        <v>155</v>
+      </c>
+      <c r="K91" s="3" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>23.08.2025</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Hungary</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>A 321</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
+        <is>
+          <t>HA-LGW</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="inlineStr">
+        <is>
+          <t>MLH-TZL-MLH</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G92" s="3" t="inlineStr">
+        <is>
+          <t>W64294</t>
+        </is>
+      </c>
+      <c r="H92" s="3" t="n">
+        <v>141</v>
+      </c>
+      <c r="I92" s="3" t="inlineStr">
+        <is>
+          <t>W64293</t>
+        </is>
+      </c>
+      <c r="J92" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="K92" s="3" t="n">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>23.08.2025</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Hungary</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>A 321</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="inlineStr">
+        <is>
+          <t>HA-LGU</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="inlineStr">
+        <is>
+          <t>DTM-TZL-DTM</t>
+        </is>
+      </c>
+      <c r="F93" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G93" s="3" t="inlineStr">
+        <is>
+          <t>W64298</t>
+        </is>
+      </c>
+      <c r="H93" s="3" t="n">
+        <v>214</v>
+      </c>
+      <c r="I93" s="3" t="inlineStr">
+        <is>
+          <t>W64297</t>
+        </is>
+      </c>
+      <c r="J93" s="3" t="n">
+        <v>234</v>
+      </c>
+      <c r="K93" s="3" t="n">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>24.08.2025</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>9H-WBA</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="inlineStr">
+        <is>
+          <t>FMM-TZL-FMM</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G94" s="3" t="inlineStr">
+        <is>
+          <t>W44280</t>
+        </is>
+      </c>
+      <c r="H94" s="3" t="n">
+        <v>147</v>
+      </c>
+      <c r="I94" s="3" t="inlineStr">
+        <is>
+          <t>W44279</t>
+        </is>
+      </c>
+      <c r="J94" s="3" t="n">
+        <v>186</v>
+      </c>
+      <c r="K94" s="3" t="n">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>24.08.2025</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="inlineStr">
+        <is>
+          <t>HA-LYG</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="inlineStr">
+        <is>
+          <t>DTM-TZL-DTM</t>
+        </is>
+      </c>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G95" s="3" t="inlineStr">
+        <is>
+          <t>W44298</t>
+        </is>
+      </c>
+      <c r="H95" s="3" t="n">
+        <v>168</v>
+      </c>
+      <c r="I95" s="3" t="inlineStr">
+        <is>
+          <t>W44297</t>
+        </is>
+      </c>
+      <c r="J95" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="K95" s="3" t="n">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>24.08.2025</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>A21</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="inlineStr">
+        <is>
+          <t>9H-WAI</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>VIE-TZL-VIE</t>
+        </is>
+      </c>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G96" s="3" t="inlineStr">
+        <is>
+          <t>W44286</t>
+        </is>
+      </c>
+      <c r="H96" s="3" t="n">
+        <v>126</v>
+      </c>
+      <c r="I96" s="3" t="inlineStr">
+        <is>
+          <t>W44285</t>
+        </is>
+      </c>
+      <c r="J96" s="3" t="n">
+        <v>221</v>
+      </c>
+      <c r="K96" s="3" t="n">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>25.08.2025</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="inlineStr">
+        <is>
+          <t>HA-LWN</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="inlineStr">
+        <is>
+          <t>FMM-TZL-FMM</t>
+        </is>
+      </c>
+      <c r="F97" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G97" s="3" t="inlineStr">
+        <is>
+          <t>W44280</t>
+        </is>
+      </c>
+      <c r="H97" s="3" t="n">
+        <v>135</v>
+      </c>
+      <c r="I97" s="3" t="inlineStr">
+        <is>
+          <t>W44279</t>
+        </is>
+      </c>
+      <c r="J97" s="3" t="n">
+        <v>172</v>
+      </c>
+      <c r="K97" s="3" t="n">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>25.08.2025</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>9H-WZS</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="inlineStr">
+        <is>
+          <t>DTM-TZL-DTM</t>
+        </is>
+      </c>
+      <c r="F98" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G98" s="3" t="inlineStr">
+        <is>
+          <t>W44298</t>
+        </is>
+      </c>
+      <c r="H98" s="3" t="n">
+        <v>131</v>
+      </c>
+      <c r="I98" s="3" t="inlineStr">
+        <is>
+          <t>W44297</t>
+        </is>
+      </c>
+      <c r="J98" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="K98" s="3" t="n">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>25.08.2025</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Hungary</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="inlineStr">
+        <is>
+          <t>HA-LWV</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="inlineStr">
+        <is>
+          <t>MLH-TZL-MLH</t>
+        </is>
+      </c>
+      <c r="F99" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G99" s="3" t="inlineStr">
+        <is>
+          <t>W64294</t>
+        </is>
+      </c>
+      <c r="H99" s="3" t="n">
+        <v>93</v>
+      </c>
+      <c r="I99" s="3" t="inlineStr">
+        <is>
+          <t>W64293</t>
+        </is>
+      </c>
+      <c r="J99" s="3" t="n">
+        <v>171</v>
+      </c>
+      <c r="K99" s="3" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>25.08.2025</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>AJet</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>B737</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr">
+        <is>
+          <t>TC-JFR</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>SAW-TZL-SAW</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G100" s="3" t="inlineStr">
+        <is>
+          <t>VF271</t>
+        </is>
+      </c>
+      <c r="H100" s="3" t="n">
+        <v>161</v>
+      </c>
+      <c r="I100" s="3" t="inlineStr">
+        <is>
+          <t>VF272</t>
+        </is>
+      </c>
+      <c r="J100" s="3" t="n">
+        <v>164</v>
+      </c>
+      <c r="K100" s="3" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>26.08.2025</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>FREEBIRD AIRLINES</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="inlineStr">
+        <is>
+          <t>TC-FHM</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>AYT-TZL-AYT</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>Charter</t>
+        </is>
+      </c>
+      <c r="G101" s="3" t="inlineStr">
+        <is>
+          <t>FHY821</t>
+        </is>
+      </c>
+      <c r="H101" s="3" t="n">
+        <v>178</v>
+      </c>
+      <c r="I101" s="3" t="inlineStr">
+        <is>
+          <t>FHY822</t>
+        </is>
+      </c>
+      <c r="J101" s="3" t="n">
+        <v>174</v>
+      </c>
+      <c r="K101" s="3" t="n">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>26.08.2025</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Hungary</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>A 321</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="inlineStr">
+        <is>
+          <t>9H-WMG</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="inlineStr">
+        <is>
+          <t>MLH-TZL-MLH</t>
+        </is>
+      </c>
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G102" s="3" t="inlineStr">
+        <is>
+          <t>W64294</t>
+        </is>
+      </c>
+      <c r="H102" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="I102" s="3" t="inlineStr">
+        <is>
+          <t>W64293</t>
+        </is>
+      </c>
+      <c r="J102" s="3" t="n">
+        <v>221</v>
+      </c>
+      <c r="K102" s="3" t="n">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>26.08.2025</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>Corendon Airlines</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="inlineStr">
+        <is>
+          <t>B737-800</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="inlineStr">
+        <is>
+          <t>TC-MKE</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="inlineStr">
+        <is>
+          <t>AYT-TZL-AYT</t>
+        </is>
+      </c>
+      <c r="F103" s="2" t="inlineStr">
+        <is>
+          <t>Charter</t>
+        </is>
+      </c>
+      <c r="G103" s="3" t="inlineStr">
+        <is>
+          <t>CAI197</t>
+        </is>
+      </c>
+      <c r="H103" s="3" t="n">
+        <v>181</v>
+      </c>
+      <c r="I103" s="3" t="inlineStr">
+        <is>
+          <t>CAI198</t>
+        </is>
+      </c>
+      <c r="J103" s="3" t="n">
+        <v>172</v>
+      </c>
+      <c r="K103" s="3" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>26.08.2025</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Hungary</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>A 321</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="inlineStr">
+        <is>
+          <t>9H-WAS</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="inlineStr">
+        <is>
+          <t>DTM-TZL-DTM</t>
+        </is>
+      </c>
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G104" s="3" t="inlineStr">
+        <is>
+          <t>W64298</t>
+        </is>
+      </c>
+      <c r="H104" s="3" t="n">
+        <v>91</v>
+      </c>
+      <c r="I104" s="3" t="inlineStr">
+        <is>
+          <t>W64298</t>
+        </is>
+      </c>
+      <c r="J104" s="3" t="n">
+        <v>231</v>
+      </c>
+      <c r="K104" s="3" t="n">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>27.08.2025</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="inlineStr">
+        <is>
+          <t>9H-WAU</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="inlineStr">
+        <is>
+          <t>FMM-TZL-FMM</t>
+        </is>
+      </c>
+      <c r="F105" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G105" s="3" t="inlineStr">
+        <is>
+          <t>W44280</t>
+        </is>
+      </c>
+      <c r="H105" s="3" t="n">
+        <v>118</v>
+      </c>
+      <c r="I105" s="3" t="inlineStr">
+        <is>
+          <t>W44279</t>
+        </is>
+      </c>
+      <c r="J105" s="3" t="n">
+        <v>174</v>
+      </c>
+      <c r="K105" s="3" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>27.08.2025</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr">
+        <is>
+          <t>HA-LYG</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="inlineStr">
+        <is>
+          <t>DTM-TZL-DTM</t>
+        </is>
+      </c>
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G106" s="3" t="inlineStr">
+        <is>
+          <t>W44298</t>
+        </is>
+      </c>
+      <c r="H106" s="3" t="n">
+        <v>89</v>
+      </c>
+      <c r="I106" s="3" t="inlineStr">
+        <is>
+          <t>W44297</t>
+        </is>
+      </c>
+      <c r="J106" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="K106" s="3" t="n">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>27.08.2025</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Hungary</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="inlineStr">
+        <is>
+          <t>HA-LYH</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="inlineStr">
+        <is>
+          <t>MLH-TZL-MLH</t>
+        </is>
+      </c>
+      <c r="F107" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G107" s="3" t="inlineStr">
+        <is>
+          <t>W64294</t>
+        </is>
+      </c>
+      <c r="H107" s="3" t="n">
+        <v>103</v>
+      </c>
+      <c r="I107" s="3" t="inlineStr">
+        <is>
+          <t>W64293</t>
+        </is>
+      </c>
+      <c r="J107" s="3" t="n">
+        <v>171</v>
+      </c>
+      <c r="K107" s="3" t="n">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>27.08.2025</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>A 321</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr">
+        <is>
+          <t>9H-WDJ</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="inlineStr">
+        <is>
+          <t>VIE-TZL-VIE</t>
+        </is>
+      </c>
+      <c r="F108" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G108" s="3" t="inlineStr">
+        <is>
+          <t>W44286</t>
+        </is>
+      </c>
+      <c r="H108" s="3" t="n">
+        <v>122</v>
+      </c>
+      <c r="I108" s="3" t="inlineStr">
+        <is>
+          <t>W44285</t>
+        </is>
+      </c>
+      <c r="J108" s="3" t="n">
+        <v>212</v>
+      </c>
+      <c r="K108" s="3" t="n">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>28.08.2025</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="inlineStr">
+        <is>
+          <t>HA-LWM</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="inlineStr">
+        <is>
+          <t>FMM-TZL-FMM</t>
+        </is>
+      </c>
+      <c r="F109" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G109" s="3" t="inlineStr">
+        <is>
+          <t>W44280</t>
+        </is>
+      </c>
+      <c r="H109" s="3" t="n">
+        <v>130</v>
+      </c>
+      <c r="I109" s="3" t="inlineStr">
+        <is>
+          <t>W44279</t>
+        </is>
+      </c>
+      <c r="J109" s="3" t="n">
+        <v>178</v>
+      </c>
+      <c r="K109" s="3" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>28.08.2025</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Hungary</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>A 321</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="inlineStr">
+        <is>
+          <t>9H-WAS</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="inlineStr">
+        <is>
+          <t>DTM-TZL-DTM</t>
+        </is>
+      </c>
+      <c r="F110" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G110" s="3" t="inlineStr">
+        <is>
+          <t>W64298</t>
+        </is>
+      </c>
+      <c r="H110" s="3" t="n">
+        <v>209</v>
+      </c>
+      <c r="I110" s="3" t="inlineStr">
+        <is>
+          <t>W64297</t>
+        </is>
+      </c>
+      <c r="J110" s="3" t="n">
+        <v>223</v>
+      </c>
+      <c r="K110" s="3" t="n">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>29.08.2025</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="inlineStr">
+        <is>
+          <t>HA-LYK</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="inlineStr">
+        <is>
+          <t>FMM-TZL-FMM</t>
+        </is>
+      </c>
+      <c r="F111" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G111" s="3" t="inlineStr">
+        <is>
+          <t>W44280</t>
+        </is>
+      </c>
+      <c r="H111" s="3" t="n">
+        <v>159</v>
+      </c>
+      <c r="I111" s="3" t="inlineStr">
+        <is>
+          <t>W44279</t>
+        </is>
+      </c>
+      <c r="J111" s="3" t="n">
+        <v>177</v>
+      </c>
+      <c r="K111" s="3" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>29.08.2025</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>FREEBIRD AIRLINES</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="inlineStr">
+        <is>
+          <t>TC-FBV</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="inlineStr">
+        <is>
+          <t>AYT-TZL-AYT</t>
+        </is>
+      </c>
+      <c r="F112" s="2" t="inlineStr">
+        <is>
+          <t>Charter</t>
+        </is>
+      </c>
+      <c r="G112" s="3" t="inlineStr">
+        <is>
+          <t>FH821</t>
+        </is>
+      </c>
+      <c r="H112" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="I112" s="3" t="inlineStr">
+        <is>
+          <t>FH822</t>
+        </is>
+      </c>
+      <c r="J112" s="3" t="n">
+        <v>167</v>
+      </c>
+      <c r="K112" s="3" t="n">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>29.08.2025</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>Pegasus Airlines</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="inlineStr">
+        <is>
+          <t>TC-CRE</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="inlineStr">
+        <is>
+          <t>SAW-TZL-SAW</t>
+        </is>
+      </c>
+      <c r="F113" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G113" s="3" t="inlineStr">
+        <is>
+          <t>PC250</t>
+        </is>
+      </c>
+      <c r="H113" s="3" t="n">
+        <v>172</v>
+      </c>
+      <c r="I113" s="3" t="inlineStr">
+        <is>
+          <t>PC251</t>
+        </is>
+      </c>
+      <c r="J113" s="3" t="n">
+        <v>147</v>
+      </c>
+      <c r="K113" s="3" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>29.08.2025</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>A 321</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="inlineStr">
+        <is>
+          <t>HA-LXV</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="inlineStr">
+        <is>
+          <t>TZL-DTM-TZL</t>
+        </is>
+      </c>
+      <c r="F114" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G114" s="3" t="inlineStr">
+        <is>
+          <t>W44298</t>
+        </is>
+      </c>
+      <c r="H114" s="3" t="n">
+        <v>163</v>
+      </c>
+      <c r="I114" s="3" t="inlineStr">
+        <is>
+          <t>W44297</t>
+        </is>
+      </c>
+      <c r="J114" s="3" t="n">
+        <v>179</v>
+      </c>
+      <c r="K114" s="3" t="n">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>29.08.2025</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Hungary</t>
+        </is>
+      </c>
+      <c r="C115" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="inlineStr">
+        <is>
+          <t>HA-LWQ</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="inlineStr">
+        <is>
+          <t>MLH-TZL-MLH</t>
+        </is>
+      </c>
+      <c r="F115" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G115" s="3" t="inlineStr">
+        <is>
+          <t>W64294</t>
+        </is>
+      </c>
+      <c r="H115" s="3" t="n">
+        <v>175</v>
+      </c>
+      <c r="I115" s="3" t="inlineStr">
+        <is>
+          <t>W64293</t>
+        </is>
+      </c>
+      <c r="J115" s="3" t="n">
+        <v>160</v>
+      </c>
+      <c r="K115" s="3" t="n">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>29.08.2025</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="inlineStr">
+        <is>
+          <t>9H-WAK</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="inlineStr">
+        <is>
+          <t>VIE-TZL-VIE</t>
+        </is>
+      </c>
+      <c r="F116" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G116" s="3" t="inlineStr">
+        <is>
+          <t>W44286</t>
+        </is>
+      </c>
+      <c r="H116" s="3" t="n">
+        <v>208</v>
+      </c>
+      <c r="I116" s="3" t="inlineStr">
+        <is>
+          <t>W44285</t>
+        </is>
+      </c>
+      <c r="J116" s="3" t="n">
+        <v>197</v>
+      </c>
+      <c r="K116" s="3" t="n">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>30.08.2025</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="inlineStr">
+        <is>
+          <t>9H-WZW</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="inlineStr">
+        <is>
+          <t>FMM-TZL-FMM</t>
+        </is>
+      </c>
+      <c r="F117" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G117" s="3" t="inlineStr">
+        <is>
+          <t>W44280</t>
+        </is>
+      </c>
+      <c r="H117" s="3" t="n">
+        <v>172</v>
+      </c>
+      <c r="I117" s="3" t="inlineStr">
+        <is>
+          <t>W44279</t>
+        </is>
+      </c>
+      <c r="J117" s="3" t="n">
+        <v>174</v>
+      </c>
+      <c r="K117" s="3" t="n">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>30.08.2025</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Hungary</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>A 321</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="inlineStr">
+        <is>
+          <t>9H-WNY</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="inlineStr">
+        <is>
+          <t>MLH-TZL-MLH</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G118" s="3" t="inlineStr">
+        <is>
+          <t>W64294</t>
+        </is>
+      </c>
+      <c r="H118" s="3" t="n">
+        <v>210</v>
+      </c>
+      <c r="I118" s="3" t="inlineStr">
+        <is>
+          <t>W64293</t>
+        </is>
+      </c>
+      <c r="J118" s="3" t="n">
+        <v>224</v>
+      </c>
+      <c r="K118" s="3" t="n">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>30.08.2025</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Hungary</t>
+        </is>
+      </c>
+      <c r="C119" s="2" t="inlineStr">
+        <is>
+          <t>A 321</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="inlineStr">
+        <is>
           <t>HA-LGA</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>TZL-FMM-TZL</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>Redovan</t>
-        </is>
-      </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>W64279</t>
-        </is>
-      </c>
-      <c r="H19" s="3" t="n">
-        <v>235</v>
-      </c>
-      <c r="I19" s="3" t="inlineStr">
-        <is>
-          <t>W64280</t>
-        </is>
-      </c>
-      <c r="J19" s="3" t="n">
-        <v>208</v>
-      </c>
-      <c r="K19" s="3" t="n">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="E119" s="2" t="inlineStr">
+        <is>
+          <t>DTM-TZL-DTM</t>
+        </is>
+      </c>
+      <c r="F119" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G119" s="3" t="inlineStr">
+        <is>
+          <t>W64298</t>
+        </is>
+      </c>
+      <c r="H119" s="3" t="n">
+        <v>226</v>
+      </c>
+      <c r="I119" s="3" t="inlineStr">
+        <is>
+          <t>W64297</t>
+        </is>
+      </c>
+      <c r="J119" s="3" t="n">
+        <v>227</v>
+      </c>
+      <c r="K119" s="3" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>31.08.2025</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr">
+        <is>
+          <t>HALWM</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="inlineStr">
+        <is>
+          <t>FMM-TZL-FMM</t>
+        </is>
+      </c>
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G120" s="3" t="inlineStr">
+        <is>
+          <t>W44280</t>
+        </is>
+      </c>
+      <c r="H120" s="3" t="n">
+        <v>154</v>
+      </c>
+      <c r="I120" s="3" t="inlineStr">
+        <is>
+          <t>W44279</t>
+        </is>
+      </c>
+      <c r="J120" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="K120" s="3" t="n">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>31.08.2025</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>A320</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="inlineStr">
+        <is>
+          <t>HALWV</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>DTM-TZL-DTM</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G121" s="3" t="inlineStr">
+        <is>
+          <t>W44298</t>
+        </is>
+      </c>
+      <c r="H121" s="3" t="n">
+        <v>168</v>
+      </c>
+      <c r="I121" s="3" t="inlineStr">
+        <is>
+          <t>W44297</t>
+        </is>
+      </c>
+      <c r="J121" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="K121" s="3" t="n">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>31.08.2025</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>A21</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="inlineStr">
+        <is>
+          <t>HALZW</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>VIE-TZL-VIE</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="G122" s="3" t="inlineStr">
+        <is>
+          <t>W44286</t>
+        </is>
+      </c>
+      <c r="H122" s="3" t="n">
+        <v>139</v>
+      </c>
+      <c r="I122" s="3" t="inlineStr">
+        <is>
+          <t>W44285</t>
+        </is>
+      </c>
+      <c r="J122" s="3" t="n">
+        <v>231</v>
+      </c>
+      <c r="K122" s="3" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="4" t="inlineStr">
         <is>
           <t>SAŽETAK IZVJEŠTAJA</t>
         </is>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="inlineStr">
+      <c r="B125" s="5" t="n"/>
+      <c r="C125" s="5" t="n"/>
+      <c r="D125" s="5" t="n"/>
+      <c r="E125" s="5" t="n"/>
+      <c r="F125" s="5" t="n"/>
+      <c r="G125" s="5" t="n"/>
+      <c r="H125" s="5" t="n"/>
+      <c r="I125" s="5" t="n"/>
+      <c r="J125" s="5" t="n"/>
+      <c r="K125" s="6" t="n"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="7" t="inlineStr">
         <is>
           <t>Period:</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2025-12-01 do 2025-12-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="inlineStr">
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>2025-08-01 do 2025-08-31</t>
+        </is>
+      </c>
+      <c r="C126" s="5" t="n"/>
+      <c r="D126" s="6" t="n"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="8" t="inlineStr">
         <is>
           <t>Ukupno letova:</t>
         </is>
       </c>
-      <c r="B24" s="7" t="n">
+      <c r="B127" s="9" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="8" t="inlineStr">
+        <is>
+          <t>Ukupno operacija:</t>
+        </is>
+      </c>
+      <c r="B128" s="9" t="n">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="8" t="inlineStr">
+        <is>
+          <t>Ukupno putnika:</t>
+        </is>
+      </c>
+      <c r="B129" s="10" t="n">
+        <v>41566</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Odlazeći putnici:</t>
+        </is>
+      </c>
+      <c r="B130" s="12" t="n">
+        <v>22022</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Dolazeći putnici:</t>
+        </is>
+      </c>
+      <c r="B131" s="12" t="n">
+        <v>19544</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="8" t="inlineStr">
+        <is>
+          <t>Prosječno putnika po letu:</t>
+        </is>
+      </c>
+      <c r="B132" s="12" t="n">
+        <v>343.5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="8" t="inlineStr">
+        <is>
+          <t>Prosječno putnika po operaciji:</t>
+        </is>
+      </c>
+      <c r="B133" s="12" t="n">
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="13" t="inlineStr">
+        <is>
+          <t>PREGLED PO AVIOKOMPANIJAMA</t>
+        </is>
+      </c>
+      <c r="B135" s="5" t="n"/>
+      <c r="C135" s="5" t="n"/>
+      <c r="D135" s="5" t="n"/>
+      <c r="E135" s="5" t="n"/>
+      <c r="F135" s="5" t="n"/>
+      <c r="G135" s="6" t="n"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="14" t="inlineStr">
+        <is>
+          <t>Aviokompanija</t>
+        </is>
+      </c>
+      <c r="B136" s="14" t="inlineStr">
+        <is>
+          <t>Letova</t>
+        </is>
+      </c>
+      <c r="C136" s="14" t="inlineStr">
+        <is>
+          <t>Operacija</t>
+        </is>
+      </c>
+      <c r="D136" s="14" t="inlineStr">
+        <is>
+          <t>Odlazeći</t>
+        </is>
+      </c>
+      <c r="E136" s="14" t="inlineStr">
+        <is>
+          <t>Dolazeći</t>
+        </is>
+      </c>
+      <c r="F136" s="14" t="inlineStr">
+        <is>
+          <t>Ukupno</t>
+        </is>
+      </c>
+      <c r="G136" s="14" t="inlineStr">
+        <is>
+          <t>Prosječno</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>AJet</t>
+        </is>
+      </c>
+      <c r="B137" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C137" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="D137" s="15" t="n">
+        <v>708</v>
+      </c>
+      <c r="E137" s="15" t="n">
+        <v>648</v>
+      </c>
+      <c r="F137" s="15" t="n">
+        <v>1356</v>
+      </c>
+      <c r="G137" s="15" t="n">
+        <v>169.5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Aero Klub Fenix</t>
+        </is>
+      </c>
+      <c r="B138" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D138" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Airport Mali Lošinj</t>
+        </is>
+      </c>
+      <c r="B139" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C139" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D139" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F139" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G139" s="15" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Corendon Airlines</t>
+        </is>
+      </c>
+      <c r="B140" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C140" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="D140" s="15" t="n">
+        <v>727</v>
+      </c>
+      <c r="E140" s="15" t="n">
+        <v>744</v>
+      </c>
+      <c r="F140" s="15" t="n">
+        <v>1471</v>
+      </c>
+      <c r="G140" s="15" t="n">
+        <v>183.9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Delic Air</t>
+        </is>
+      </c>
+      <c r="B141" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C141" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D141" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>FREEBIRD AIRLINES</t>
+        </is>
+      </c>
+      <c r="B142" s="15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C142" s="15" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="inlineStr">
-        <is>
-          <t>Ukupno putnika:</t>
-        </is>
-      </c>
-      <c r="B25" s="8" t="n">
-        <v>6135</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="6" t="inlineStr">
-        <is>
-          <t>Prosječno putnika po letu:</t>
-        </is>
-      </c>
-      <c r="B26" s="9" t="n">
-        <v>340.8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="10" t="inlineStr">
-        <is>
-          <t>PREGLED PO AVIOKOMPANIJAMA</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="inlineStr">
-        <is>
-          <t>Aviokompanija</t>
-        </is>
-      </c>
-      <c r="B29" s="5" t="inlineStr">
-        <is>
-          <t>Broj letova</t>
-        </is>
-      </c>
-      <c r="C29" s="5" t="inlineStr">
+      <c r="D142" s="15" t="n">
+        <v>1594</v>
+      </c>
+      <c r="E142" s="15" t="n">
+        <v>1615</v>
+      </c>
+      <c r="F142" s="15" t="n">
+        <v>3209</v>
+      </c>
+      <c r="G142" s="15" t="n">
+        <v>178.3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Pegasus Airlines</t>
+        </is>
+      </c>
+      <c r="B143" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C143" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="D143" s="15" t="n">
+        <v>783</v>
+      </c>
+      <c r="E143" s="15" t="n">
+        <v>826</v>
+      </c>
+      <c r="F143" s="15" t="n">
+        <v>1609</v>
+      </c>
+      <c r="G143" s="15" t="n">
+        <v>160.9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Wizz Air Hungary</t>
+        </is>
+      </c>
+      <c r="B144" s="15" t="n">
+        <v>36</v>
+      </c>
+      <c r="C144" s="15" t="n">
+        <v>72</v>
+      </c>
+      <c r="D144" s="15" t="n">
+        <v>7252</v>
+      </c>
+      <c r="E144" s="15" t="n">
+        <v>5763</v>
+      </c>
+      <c r="F144" s="15" t="n">
+        <v>13015</v>
+      </c>
+      <c r="G144" s="15" t="n">
+        <v>180.8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Wizz Air Malta</t>
+        </is>
+      </c>
+      <c r="B145" s="15" t="n">
+        <v>59</v>
+      </c>
+      <c r="C145" s="15" t="n">
+        <v>118</v>
+      </c>
+      <c r="D145" s="15" t="n">
+        <v>10958</v>
+      </c>
+      <c r="E145" s="15" t="n">
+        <v>9946</v>
+      </c>
+      <c r="F145" s="15" t="n">
+        <v>20904</v>
+      </c>
+      <c r="G145" s="15" t="n">
+        <v>177.2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="13" t="inlineStr">
+        <is>
+          <t>TOP 10 RUTA</t>
+        </is>
+      </c>
+      <c r="B147" s="5" t="n"/>
+      <c r="C147" s="5" t="n"/>
+      <c r="D147" s="5" t="n"/>
+      <c r="E147" s="6" t="n"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="14" t="inlineStr">
+        <is>
+          <t>Ruta</t>
+        </is>
+      </c>
+      <c r="B148" s="14" t="inlineStr">
+        <is>
+          <t>Letova</t>
+        </is>
+      </c>
+      <c r="C148" s="14" t="inlineStr">
+        <is>
+          <t>Operacija</t>
+        </is>
+      </c>
+      <c r="D148" s="14" t="inlineStr">
         <is>
           <t>Putnici</t>
         </is>
       </c>
-      <c r="D29" s="5" t="inlineStr">
+      <c r="E148" s="14" t="inlineStr">
         <is>
           <t>Prosječno</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Wizz Air Hungary</t>
-        </is>
-      </c>
-      <c r="B30" s="11" t="n">
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>DTM-TZL-DTM</t>
+        </is>
+      </c>
+      <c r="B149" s="15" t="n">
+        <v>30</v>
+      </c>
+      <c r="C149" s="15" t="n">
+        <v>60</v>
+      </c>
+      <c r="D149" s="15" t="n">
+        <v>11322</v>
+      </c>
+      <c r="E149" s="15" t="n">
+        <v>188.7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>FMM-TZL-FMM</t>
+        </is>
+      </c>
+      <c r="B150" s="15" t="n">
+        <v>27</v>
+      </c>
+      <c r="C150" s="15" t="n">
+        <v>54</v>
+      </c>
+      <c r="D150" s="15" t="n">
+        <v>9136</v>
+      </c>
+      <c r="E150" s="15" t="n">
+        <v>169.2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>MLH-TZL-MLH</t>
+        </is>
+      </c>
+      <c r="B151" s="15" t="n">
+        <v>22</v>
+      </c>
+      <c r="C151" s="15" t="n">
+        <v>44</v>
+      </c>
+      <c r="D151" s="15" t="n">
+        <v>7444</v>
+      </c>
+      <c r="E151" s="15" t="n">
+        <v>169.2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>VIE-TZL-VIE</t>
+        </is>
+      </c>
+      <c r="B152" s="15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C152" s="15" t="n">
+        <v>28</v>
+      </c>
+      <c r="D152" s="15" t="n">
+        <v>5675</v>
+      </c>
+      <c r="E152" s="15" t="n">
+        <v>202.7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>AYT-TZL-AYT</t>
+        </is>
+      </c>
+      <c r="B153" s="15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C153" s="15" t="n">
+        <v>26</v>
+      </c>
+      <c r="D153" s="15" t="n">
+        <v>4680</v>
+      </c>
+      <c r="E153" s="15" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>SAW-TZL-SAW</t>
+        </is>
+      </c>
+      <c r="B154" s="15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C154" s="15" t="n">
         <v>18</v>
       </c>
-      <c r="C30" s="11" t="n">
-        <v>6135</v>
-      </c>
-      <c r="D30" s="11" t="n">
-        <v>340.8</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="10" t="inlineStr">
-        <is>
-          <t>TOP 10 RUTA</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="5" t="inlineStr">
-        <is>
-          <t>Ruta</t>
-        </is>
-      </c>
-      <c r="B33" s="5" t="inlineStr">
-        <is>
-          <t>Broj letova</t>
-        </is>
-      </c>
-      <c r="C33" s="5" t="inlineStr">
-        <is>
-          <t>Putnici</t>
-        </is>
-      </c>
-      <c r="D33" s="5" t="inlineStr">
+      <c r="D154" s="15" t="n">
+        <v>2965</v>
+      </c>
+      <c r="E154" s="15" t="n">
+        <v>164.7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>SOF-TZL-SOF</t>
+        </is>
+      </c>
+      <c r="B155" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C155" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D155" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>EBOS-TZL</t>
+        </is>
+      </c>
+      <c r="B156" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C156" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D156" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E156" s="15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>TZL-LSZ</t>
+        </is>
+      </c>
+      <c r="B157" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D157" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>LQCG-TZL-LYVJ</t>
+        </is>
+      </c>
+      <c r="B158" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D158" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="13" t="inlineStr">
+        <is>
+          <t>PREGLED PO TIPU SAOBRAĆAJA</t>
+        </is>
+      </c>
+      <c r="B160" s="5" t="n"/>
+      <c r="C160" s="5" t="n"/>
+      <c r="D160" s="5" t="n"/>
+      <c r="E160" s="5" t="n"/>
+      <c r="F160" s="5" t="n"/>
+      <c r="G160" s="6" t="n"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="14" t="inlineStr">
+        <is>
+          <t>Tip saobraćaja</t>
+        </is>
+      </c>
+      <c r="B161" s="14" t="inlineStr">
+        <is>
+          <t>Letova</t>
+        </is>
+      </c>
+      <c r="C161" s="14" t="inlineStr">
+        <is>
+          <t>Operacija</t>
+        </is>
+      </c>
+      <c r="D161" s="14" t="inlineStr">
+        <is>
+          <t>Odlazeći</t>
+        </is>
+      </c>
+      <c r="E161" s="14" t="inlineStr">
+        <is>
+          <t>Dolazeći</t>
+        </is>
+      </c>
+      <c r="F161" s="14" t="inlineStr">
+        <is>
+          <t>Ukupno</t>
+        </is>
+      </c>
+      <c r="G161" s="14" t="inlineStr">
         <is>
           <t>Prosječno</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>TZL-FMM-TZL</t>
-        </is>
-      </c>
-      <c r="B34" s="11" t="n">
-        <v>18</v>
-      </c>
-      <c r="C34" s="11" t="n">
-        <v>6135</v>
-      </c>
-      <c r="D34" s="11" t="n">
-        <v>340.8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="10" t="inlineStr">
-        <is>
-          <t>PREGLED PO TIPU SAOBRAĆAJA</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="5" t="inlineStr">
-        <is>
-          <t>Tip saobraćaja</t>
-        </is>
-      </c>
-      <c r="B37" s="5" t="inlineStr">
-        <is>
-          <t>Broj letova</t>
-        </is>
-      </c>
-      <c r="C37" s="5" t="inlineStr">
-        <is>
-          <t>Putnici</t>
-        </is>
-      </c>
-      <c r="D37" s="5" t="inlineStr">
-        <is>
-          <t>Prosječno</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Redovan</t>
-        </is>
-      </c>
-      <c r="B38" s="11" t="n">
-        <v>18</v>
-      </c>
-      <c r="C38" s="11" t="n">
-        <v>6135</v>
-      </c>
-      <c r="D38" s="11" t="n">
-        <v>340.8</v>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Charter</t>
+        </is>
+      </c>
+      <c r="B162" s="15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C162" s="15" t="n">
+        <v>27</v>
+      </c>
+      <c r="D162" s="15" t="n">
+        <v>2321</v>
+      </c>
+      <c r="E162" s="15" t="n">
+        <v>2361</v>
+      </c>
+      <c r="F162" s="15" t="n">
+        <v>4682</v>
+      </c>
+      <c r="G162" s="15" t="n">
+        <v>173.4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Generalna avijacija</t>
+        </is>
+      </c>
+      <c r="B163" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C163" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D163" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F163" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Redovan</t>
+        </is>
+      </c>
+      <c r="B164" s="15" t="n">
+        <v>105</v>
+      </c>
+      <c r="C164" s="15" t="n">
+        <v>210</v>
+      </c>
+      <c r="D164" s="15" t="n">
+        <v>19701</v>
+      </c>
+      <c r="E164" s="15" t="n">
+        <v>17183</v>
+      </c>
+      <c r="F164" s="15" t="n">
+        <v>36884</v>
+      </c>
+      <c r="G164" s="15" t="n">
+        <v>175.6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A135:G135"/>
+    <mergeCell ref="A147:E147"/>
+    <mergeCell ref="A125:K125"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="A160:G160"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
